--- a/Trabajo_3/Fit_model_1D2R_numeric.xlsx
+++ b/Trabajo_3/Fit_model_1D2R_numeric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C0FFF-FD16-40BD-B376-4F5D55AE3758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620205D7-14BA-4635-AB15-DC02D38E3526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RTC France</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>PWP201</t>
+  </si>
+  <si>
+    <t>KC200GT2</t>
+  </si>
+  <si>
+    <t>SPVSX5</t>
+  </si>
+  <si>
+    <t>PSC</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACF4F7E-1DE3-4C2B-98F8-E9993EF6FAC6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,6 +548,86 @@
         <v>5.87</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1E-8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1E-8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1E-8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>6.91</v>
+      </c>
+      <c r="C9">
+        <v>2.83E-5</v>
+      </c>
+      <c r="D9">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>-26000</v>
+      </c>
+      <c r="F9">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
